--- a/쿼리문서.xlsx
+++ b/쿼리문서.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\goodee\lastProject\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5896298-AB16-4C4C-99BA-FEDCB331702F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{74C9E52F-23EC-4A5C-93B6-C1786BBF2B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{116C8692-C26E-4F46-AA31-39B894195CC1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{116C8692-C26E-4F46-AA31-39B894195CC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -47,10 +43,6 @@
     <t>반환타입</t>
   </si>
   <si>
-    <t>방 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,7 +55,80 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SELECT CHAT_ID, ROOM_ID, EMP_ID, CHAT_CON,CHAT_TIME 
+    <t>채팅 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO CHAT (CHAT_ID,ROOM_ID,EMP_ID,CHAT_CON,CHAT_TIME,CHAT_TYPE) 
+    VALUES ('111','19',0,TO_CLOB('&lt;b&gt;21번 님이 퇴장하였습니다&lt;/b&gt;'),SYSDATE,'T');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO CHAT_FILE (FILE_CHAT_ID,FILE_CHAT_UUID,FILE_CHAT_ORIGINNM,FILE_CHAT_TYPE,FILE_UPLOADPATH,CHAT_ID) 
+     VALUES ('1','image0001','7676367_social_icon_dock_icon','png','C:\goodee\spring_workspace\.metadata\.plugins\org.eclipse.wst.server.core\tmp0\wtpwebapps\Chatting\storage\chatFile\05\23','152');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">파일 입력
+ - CHAT_FILE </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅방 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO CHAT_ROOM (ROOM_ID, ROOM_NAME,ROOM_MEM)
+    VALUES('2','비','{"ROOM" : [{"id":"2","auth":"A","join":"20220523111300"},
+                                      {"id":"4","auth":"M","join":"20220523111300"},
+                                      {"id":"11","auth":"M","join":"20220523111300"}]}');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selChat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insChat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insChatRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selRoomMem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅방 멤버 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿼리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT jt.IDS  
+    FROM CHAT_ROOM,
+    JSON_TABLE(ROOM_MEM, '$.ROOM[*]'
+        COLUMNS (
+            IDS VARCHAR(20) PATH '$.id'
+        )
+    ) AS jt
+    WHERE ROOM_ID = '2';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT CHAT_ID, ROOM_ID, EMP_ID, CHAT_CON,CHAT_TIME,CHAT_TYPE
     FROM CHAT 
         WHERE ROOM_ID = '4'  
         AND CHAT_TIME &gt;= (
@@ -81,82 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>채팅 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO CHAT (CHAT_ID,ROOM_ID,EMP_ID,CHAT_CON,CHAT_TIME,CHAT_TYPE) 
-    VALUES ('111','19',0,TO_CLOB('&lt;b&gt;21번 님이 퇴장하였습니다&lt;/b&gt;'),SYSDATE,'T');</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO CHAT (CHAT_ID,ROOM_ID,EMP_ID,CHAT_CON,CHAT_TIME,CHAT_TYPE) 
-    VALUES ('156','22',2,TO_CLOB('&lt;img src="./storage/chatFile/05/23/image0005.png"&gt;'),SYSDATE,'F');</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO CHAT_FILE (FILE_CHAT_ID,FILE_CHAT_UUID,FILE_CHAT_ORIGINNM,FILE_CHAT_TYPE,FILE_UPLOADPATH,CHAT_ID) 
-     VALUES ('1','image0001','7676367_social_icon_dock_icon','png','C:\goodee\spring_workspace\.metadata\.plugins\org.eclipse.wst.server.core\tmp0\wtpwebapps\Chatting\storage\chatFile\05\23','152');</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">파일 입력
- - CHAT </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">파일 입력
- - CHAT_FILE </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채팅방 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO CHAT_ROOM (ROOM_ID, ROOM_NAME,ROOM_MEM)
-    VALUES('2','비','{"ROOM" : [{"id":"2","auth":"A","join":"20220523111300"},
-                                      {"id":"4","auth":"M","join":"20220523111300"},
-                                      {"id":"11","auth":"M","join":"20220523111300"}]}');</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selChat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insChat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insChatFile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insChatRealFile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insChatRoom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selRoom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selRoomMem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채팅방 멤버 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿼리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SELECT cr.ROOM_ID, cr.ROOM_NAME, CHAT_TIME, CHAT_ID, EMP_ID
     FROM CHAT_ROOM cr,
         JSON_TABLE(ROOM_MEM, '$.ROOM[*]'
@@ -167,12 +156,41 @@
         (SELECT ROOM_ID, EMP_ID ,CHAT_ID ,CHAT_TIME ,
                    ROW_NUMBER () OVER(PARTITION BY ROOM_ID ORDER BY CHAT_TIME DESC) AS mx
             FROM CHAT
-            WHERE EMP_ID != '0'
         ) ch
     WHERE IDS = '5'
     AND cr.ROOM_ID = ch.ROOM_ID
     AND mx = 1
     ORDER BY CHAT_ID;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selFileNM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT FILE_CHAT_ORIGINNM || '.' || FILE_CHAT_TYPE 
+    FROM CHAT_FILE
+    WHERE FILE_CHAT_ID = '1';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 이름 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,15 +566,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03F8B7B-D6A8-4983-B107-CE0ACA7924F0}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="92.25" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="95.875" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -568,7 +586,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -577,90 +595,119 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="264" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="247.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="247.5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="6" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="132" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/쿼리문서.xlsx
+++ b/쿼리문서.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{74C9E52F-23EC-4A5C-93B6-C1786BBF2B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{13EA097F-9180-4E12-B650-FD28BCD85384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{116C8692-C26E-4F46-AA31-39B894195CC1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{116C8692-C26E-4F46-AA31-39B894195CC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,14 +16,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -128,42 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SELECT CHAT_ID, ROOM_ID, EMP_ID, CHAT_CON,CHAT_TIME,CHAT_TYPE
-    FROM CHAT 
-        WHERE ROOM_ID = '4'  
-        AND CHAT_TIME &gt;= (
-                SELECT TO_DATE(jt.JDATE,'YYYYMMDDHH24MISS')
-                    FROM CHAT_ROOM,
-                    JSON_TABLE(ROOM_MEM, '$.ROOM[*]'
-                        COLUMNS (
-                            IDS VARCHAR(20) PATH '$.id',
-                            JDATE VARCHAR(30) PATH '$.join'
-                        )
-                    ) AS jt
-                    WHERE IDS = '5' AND ROOM_ID = '4'
-        )
-        ORDER BY TO_NUMBER(CHAT_ID);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT cr.ROOM_ID, cr.ROOM_NAME, CHAT_TIME, CHAT_ID, EMP_ID
-    FROM CHAT_ROOM cr,
-        JSON_TABLE(ROOM_MEM, '$.ROOM[*]'
-            COLUMNS (
-                IDS VARCHAR(20) PATH '$.id'
-            )
-        ) AS jt,
-        (SELECT ROOM_ID, EMP_ID ,CHAT_ID ,CHAT_TIME ,
-                   ROW_NUMBER () OVER(PARTITION BY ROOM_ID ORDER BY CHAT_TIME DESC) AS mx
-            FROM CHAT
-        ) ch
-    WHERE IDS = '5'
-    AND cr.ROOM_ID = ch.ROOM_ID
-    AND mx = 1
-    ORDER BY CHAT_ID;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>insFile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -191,6 +147,43 @@
   </si>
   <si>
     <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT ch.ROOM_ID, ROOM_NAME, CHAT_TIME, CHAT_ID, CHAT_TYPE ,EMP_ID,CHAT_CON
+    		FROM CHAT_ROOM cr,
+	        	JSON_TABLE(ROOM_MEM, '$.ROOM[*]'
+	            	COLUMNS (
+	                	IDS VARCHAR(20) PATH '$.id'
+	            	)
+	        	) AS jt,
+	        	(SELECT ROOM_ID, EMP_ID ,CHAT_ID ,
+	        			CHAT_TIME , CHAT_TYPE, CHAT_CON,
+	                    ROW_NUMBER () OVER(PARTITION BY ROOM_ID ORDER BY CHAT_TIME DESC) AS mx
+	            	FROM CHAT
+	        	) ch
+    		WHERE IDS = '2022052800'
+    		AND cr.ROOM_ID = ch.ROOM_ID
+    		AND mx = 1
+    		ORDER BY CHAT_ID;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT CHAT_ID, EMP_ID, CHAT_CON, CHAT_TIME, CHAT_TYPE
+	FROM CHAT 
+	WHERE ROOM_ID = '4'  
+	AND CHAT_TIME &gt;= (
+		SELECT TO_DATE(jt.JDATE,'YYYYMMDDHH24MISS')
+			FROM CHAT_ROOM,
+			JSON_TABLE(ROOM_MEM, '$.ROOM[*]'
+				COLUMNS (
+		 			IDS VARCHAR(20) PATH '$.id',
+		 			JDATE VARCHAR(30) PATH '$.join'
+				)
+			) AS jt
+			WHERE IDS = '2022052800' AND ROOM_ID = '4'
+	)
+	ORDER BY TO_NUMBER(CHAT_ID);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,19 +559,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03F8B7B-D6A8-4983-B107-CE0ACA7924F0}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="95.875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="95.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="247.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="272" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -603,7 +596,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -612,7 +605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="247.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="255" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -620,7 +613,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -629,7 +622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -640,15 +633,15 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="85" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
@@ -657,13 +650,13 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="68" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -674,13 +667,13 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="132" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="136" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -691,18 +684,18 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/쿼리문서.xlsx
+++ b/쿼리문서.xlsx
@@ -3,15 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{13EA097F-9180-4E12-B650-FD28BCD85384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rla74\git\DoitDoitChat\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410E21B4-FA91-4A18-8127-48E5C149D3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{116C8692-C26E-4F46-AA31-39B894195CC1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{116C8692-C26E-4F46-AA31-39B894195CC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -102,17 +106,6 @@
   </si>
   <si>
     <t>쿼리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT jt.IDS  
-    FROM CHAT_ROOM,
-    JSON_TABLE(ROOM_MEM, '$.ROOM[*]'
-        COLUMNS (
-            IDS VARCHAR(20) PATH '$.id'
-        )
-    ) AS jt
-    WHERE ROOM_ID = '2';</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -184,6 +177,19 @@
 			WHERE IDS = '2022052800' AND ROOM_ID = '4'
 	)
 	ORDER BY TO_NUMBER(CHAT_ID);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT jt.IDS AS EMP_ID
+	FROM CHAT_ROOM,
+	JSON_TABLE(ROOM_MEM, '$.ROOM[*]'
+		COLUMNS (
+		 	IDS VARCHAR(20) PATH '$.id',
+		 	JDATE VARCHAR(30) PATH '$.join'
+		)
+	) AS jt
+	WHERE ROOM_ID = '2022052800'
+	ORDER BY TO_DATE(jt.JDATE,'YYYYMMDDHH24MISS'), IDS DESC;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03F8B7B-D6A8-4983-B107-CE0ACA7924F0}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -593,10 +599,10 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -613,7 +619,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -633,15 +639,15 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
         <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="85" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
@@ -650,10 +656,10 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
         <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="68" x14ac:dyDescent="0.45">
@@ -667,13 +673,13 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="7" spans="1:5" ht="136" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="170" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -681,21 +687,21 @@
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/쿼리문서.xlsx
+++ b/쿼리문서.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rla74\git\DoitDoitChat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410E21B4-FA91-4A18-8127-48E5C149D3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2567490-108A-40AB-B57B-223C69A65CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{116C8692-C26E-4F46-AA31-39B894195CC1}"/>
+    <workbookView xWindow="21345" yWindow="3480" windowWidth="12075" windowHeight="5115" xr2:uid="{116C8692-C26E-4F46-AA31-39B894195CC1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="시나리오" sheetId="2" r:id="rId1"/>
+    <sheet name="쿼리테스트" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,43 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="111">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>기능</t>
-  </si>
-  <si>
-    <t>파라미터</t>
-  </si>
-  <si>
-    <t>반환타입</t>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>채팅 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채팅 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO CHAT (CHAT_ID,ROOM_ID,EMP_ID,CHAT_CON,CHAT_TIME,CHAT_TYPE) 
-    VALUES ('111','19',0,TO_CLOB('&lt;b&gt;21번 님이 퇴장하였습니다&lt;/b&gt;'),SYSDATE,'T');</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO CHAT_FILE (FILE_CHAT_ID,FILE_CHAT_UUID,FILE_CHAT_ORIGINNM,FILE_CHAT_TYPE,FILE_UPLOADPATH,CHAT_ID) 
-     VALUES ('1','image0001','7676367_social_icon_dock_icon','png','C:\goodee\spring_workspace\.metadata\.plugins\org.eclipse.wst.server.core\tmp0\wtpwebapps\Chatting\storage\chatFile\05\23','152');</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -74,13 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INSERT INTO CHAT_ROOM (ROOM_ID, ROOM_NAME,ROOM_MEM)
-    VALUES('2','비','{"ROOM" : [{"id":"2","auth":"A","join":"20220523111300"},
-                                      {"id":"4","auth":"M","join":"20220523111300"},
-                                      {"id":"11","auth":"M","join":"20220523111300"}]}');</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>selChat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,25 +84,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SELECT FILE_CHAT_ORIGINNM || '.' || FILE_CHAT_TYPE 
-    FROM CHAT_FILE
-    WHERE FILE_CHAT_ID = '1';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>파일 이름 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -192,12 +137,455 @@
 	ORDER BY TO_DATE(jt.JDATE,'YYYYMMDDHH24MISS'), IDS DESC;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOM_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO CHAT_ROOM (ROOM_ID, ROOM_NAME,ROOM_MEM)
+    VALUES('SEQ_CHAT_ROOM.NEXTVAL,
+                '비','{"ROOM" : [{"id":"2","auth":"A","join":"20220523111300"},
+                                      {"id":"4","auth":"M","join":"20220523111300"},
+                                      {"id":"11","auth":"M","join":"20220523111300"}]}');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO CHAT_FILE (FILE_CHAT_ID,FILE_CHAT_UUID,FILE_CHAT_ORIGINNM,FILE_CHAT_TYPE,FILE_UPLOADPATH,CHAT_ID) 
+     VALUES (SEQ_CHAT_FILE.NEXTVAL,'image0001','7676367_social_icon_dock_icon','png','C:\goodee\spring_workspace\.metadata\.plugins\org.eclipse.wst.server.core\tmp0\wtpwebapps\Chatting\storage\chatFile\05\23',
+(SELECT NVL(MAX(TO_NUMBER(CHAT_ID)) , 0) + 1  FROM CHAT));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO CHAT (CHAT_ID,ROOM_ID,EMP_ID,CHAT_CON,CHAT_TIME,CHAT_TYPE) 
+    VALUES (SEQ_CHAT.NEXTVAL,'19',0,TO_CLOB('&lt;b&gt;21번 님이 퇴장하였습니다&lt;/b&gt;'),SYSDATE,'T');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Argumet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ROOM_ID, EMP_ID </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map&lt;String, String&gt;</t>
+  </si>
+  <si>
+    <t>Map&lt;String, String&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT FILE_CHAT_ORIGINNM || '.' || FILE_CHAT_TYPE 
+    FROM CHAT_FILE
+    WHERE CHAT_ID = '1';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 입력(텍스트, 파일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿼리 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅방 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시나리오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOIT_F_05000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOIT_W_04002</t>
+  </si>
+  <si>
+    <t>DOIT_W_04003</t>
+  </si>
+  <si>
+    <t>DOIT_W_04004</t>
+  </si>
+  <si>
+    <t>DOIT_W_04005</t>
+  </si>
+  <si>
+    <t>DOIT_W_04006</t>
+  </si>
+  <si>
+    <t>DOIT_W_04007</t>
+  </si>
+  <si>
+    <t>DOIT_W_04008</t>
+  </si>
+  <si>
+    <t>DOIT_W_04009</t>
+  </si>
+  <si>
+    <t>수용 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOIT_W_04001
+DOIT_W_04002
+DOIT_W_04003
+DOIT_W_04004
+DOIT_W_04005
+DOIT_W_04006
+DOIT_W_04007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅방을 생성하거나 자신이 초대된 채팅방에 들어간다.
+해당 채팅 인원, 이전에 올라온 채팅이 있는지 조회한다. 이후, 채팅 메시지 및 파일 메시지를 입력할 수 있으며 중간에 인원이 들어오거나
+해당 채팅방에서 모두가 나가면(창 닫기) 채팅을 저장한다.
+이때 파일 메시지가 있다면 해당 파일의 원본을 따로 저장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOIT_W_04008
+DOIT_W_04009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOIT_W_04001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시나리오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅방을 생성하거나 자신이 초대된 채팅방에 들어간다.
+해당 채팅 인원, 이전에 올라온 채팅이 있는지 조회한다. 
+이후, 채팅 메시지 및 파일 메시지를 입력할 수 있으며,
+파일 메시지는 해당 파일을 원본 파일명으로 다운이 가능하며 중간에 인원이 들어오거나 해당 채팅방에서 모두가 나가면(창 닫기) 채팅을 저장한다. 이때 파일 메시지가 있다면 해당 파일의 원본을 따로 저장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delChatRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upsChatMem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅방 멤버 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 채팅방에서 사원이 초대되면 채팅 목록에서 추가되며,
+ 퇴장하면 해당 인원은 채팅 참여 목록에서 제외 되고 해당 
+인원이 채팅한 기록은 남는다.
+이때 해당 채팅 참여 인원이 0명이라면 채팅방이 삭제된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOM_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST&lt;ChatJoinVo&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST&lt;ChatVo&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;String&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOM_ID, 
+ROOM_NAME, 
+CHAT_TIME, 
+CHAT_ID, 
+CHAT_TYPE ,
+EMP_ID,
+CHAT_CON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAT_ID,
+EMP_ID, 
+CHAT_CON,
+CHAT_TIME,
+CHAT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FILE_CHAT_ORIGINNM,
+FILE_CHAT_TYPE </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOIT_F_04000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ROOM_ID, 
+EMP_ID </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEQ_CHAT, 
+ROOM_ID, 
+EMP_ID, 
+CHAT_CON, 
+CHAT_TIEM, 
+CHAT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOM_ID, 
+ROOM_NAME,
+ROOM_MEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOM_ID, 
+ROOM_MEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEQ_CHAT_FILE, 
+FILE_CHAT_UUID, 
+FILE_CHAT_ORIGINNM,
+FILE_CHAT_TYPE,
+FILE_UPLOADPATH,
+CHAT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOM_ID, 
+EMP_ID, 
+CHAT_CON, 
+CHAT_TIEM, 
+CHAT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOM_NAME,
+ROOM_MEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE_CHAT_UUID, FILE_CHAT_ORIGINNM,
+FILE_CHAT_TYPE,
+FILE_UPLOADPATH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE CHAT_ROOM ROOM_MEM = '{"ROOM" : [{"id":"2","auth":"A","join":"20220523111300"},
+                                      {"id":"4","auth":"M","join":"20220523111300"},
+                                      {"id":"11","auth":"M","join":"20220523111300"}]}'
+             WHERE ROOM_ID = 5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE CHAT_ROOM 
+             WHERE ROOM_ID = '5';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOIT_F_03000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">조직도를 통해 사용자의 정보를 확인 할 수 있으며, 
+검색을 통해 사용자의 상세 프로필을 확인 할 수 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조직도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOIT_W_03001</t>
+  </si>
+  <si>
+    <t>조직도 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;DeptVo&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPT_NO,
+DEPT_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT DEPTNO, DNAME
+    FROM DEPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT EMP_ID ,DEPT_NO , RANK_NO, 
+        EMP_NAME ||' - '||(SELECT RANK_NAME 
+        					FROM "RANK" r 
+        					WHERE e.RANK_NO = r.RANK_NO)
+	FROM EMP e;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP_ID ,
+DEPT_NO , 
+RANK_NO,
+RANK_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selEmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT EMP_NAME, EMP_PHONE , EMP_EMAIL , EMP_REGDATE ,
+	(SELECT RANK_NAME 
+		FROM "RANK" r 
+		WHERE e.RANK_NO = r.RANK_NO),
+	(SELECT DEPT_NAME
+		FROM DEPT d
+		WHERE e.DEPT_NO = d.DEPT_NO)
+	FROM EMP e 
+	WHERE EMP_ID = '2022053200';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selChoiceEmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selDept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP_NAME, EMP_PHONE , EMP_EMAIL , EMP_REGDATE,
+RANK_NAME,
+DEPT_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmpVo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,16 +601,106 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -230,13 +708,209 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -244,14 +918,199 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="40% - 강조색6" xfId="1" builtinId="51"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -562,149 +1421,778 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03F8B7B-D6A8-4983-B107-CE0ACA7924F0}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4B52A3-FAE9-43EF-A831-761E93D87AA2}">
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="95.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="58.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="115.5">
+      <c r="A2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="33.75" customHeight="1">
+      <c r="A3" s="12"/>
+      <c r="B3" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="33.75" customHeight="1">
+      <c r="A4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" spans="1:5" ht="33.75" customHeight="1">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" spans="1:5" ht="33.75" customHeight="1">
+      <c r="A6" s="23"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:5" ht="33.75" customHeight="1">
+      <c r="A7" s="24"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" spans="1:5" ht="33.75" customHeight="1">
+      <c r="A8" s="27"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="1:5" ht="33.75" customHeight="1">
+      <c r="A9" s="36"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" spans="1:5" ht="33.75" customHeight="1">
+      <c r="A10" s="36"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="36"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="36"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="20"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="36"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="32"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="33"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="C19" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="20"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03F8B7B-D6A8-4983-B107-CE0ACA7924F0}">
+  <dimension ref="A1:P17"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="95.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.625" customWidth="1"/>
+    <col min="11" max="11" width="20.5" customWidth="1"/>
+    <col min="12" max="12" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.125" customWidth="1"/>
+    <col min="16" max="16" width="11.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1">
+      <c r="A1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="33">
+      <c r="A2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M2" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="10"/>
+    </row>
+    <row r="3" spans="1:16" ht="82.5">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="148.5">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="48"/>
+      <c r="F4" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" ht="264">
+      <c r="A5" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" ht="247.5">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E6" s="43"/>
+      <c r="F6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" ht="99">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:16" ht="99">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E8" s="43"/>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" ht="82.5">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="272" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E9" s="43"/>
+      <c r="F9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" ht="165">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="43"/>
+      <c r="F10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" ht="49.5">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="43"/>
+      <c r="F11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="255" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="J11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="85" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="68" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="170" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="M11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" ht="66">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" ht="33">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="48"/>
+      <c r="F13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="G15" s="44"/>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" s="45"/>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E11"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
